--- a/3DGame/Assets/Data/data.xlsx
+++ b/3DGame/Assets/Data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hope\Desktop\3DGame\3DGame\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C142D4-121B-4FCB-B29D-C9B1F4F9E272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A336519-BC2A-4B24-B9B4-3E7F2282A499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{415DCBF7-629F-493D-B890-AE5F91E1A4CB}"/>
   </bookViews>
@@ -27,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
-    <t>up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ammo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,7 +79,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>down</t>
+    <t>w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +454,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -471,31 +471,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -503,10 +503,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -520,13 +520,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -539,16 +539,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -560,19 +560,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>14</v>

--- a/3DGame/Assets/Data/data.xlsx
+++ b/3DGame/Assets/Data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hope\Desktop\3DGame\3DGame\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A336519-BC2A-4B24-B9B4-3E7F2282A499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D9E2F4-05BB-4C95-BE33-4EDFA257E68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{415DCBF7-629F-493D-B890-AE5F91E1A4CB}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{415DCBF7-629F-493D-B890-AE5F91E1A4CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -25,23 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
-  <si>
-    <t>ammo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>terret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>veicle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>index(int)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +69,28 @@
   <si>
     <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vehicle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mechanic</t>
+  </si>
+  <si>
+    <t>AmmoPack</t>
   </si>
 </sst>
 </file>
@@ -454,7 +460,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -471,31 +477,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -503,12 +509,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -520,13 +528,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -539,16 +547,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -560,28 +568,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
